--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -36,9 +36,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>ujj@gmail.com</t>
-  </si>
-  <si>
     <t>ujjwala35</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>8985579923</t>
+  </si>
+  <si>
+    <t>ujjwalam</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -529,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -537,7 +537,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3">
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -564,55 +564,55 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="ujj@gmail.com"/>
-    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId2" display="ujj@gmail.com"/>
     <hyperlink ref="E19" r:id="rId3"/>
     <hyperlink ref="F19" r:id="rId4"/>
     <hyperlink ref="G19" r:id="rId5"/>
